--- a/코테 목록.xlsx
+++ b/코테 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taekyuim/Desktop/code/Algorithm_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E983F7C9-30B5-8048-887F-F884C3E033E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42473705-8494-0F44-A601-4E8C37A18CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="4100" windowWidth="28100" windowHeight="17380" xr2:uid="{FE23ECA6-7A16-F44B-8D65-1D87F9C0C484}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>그래프탐색</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,9 +121,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +465,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -634,8 +637,8 @@
       <c r="G6">
         <v>16120</v>
       </c>
-      <c r="H6">
-        <v>13144</v>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I6">
         <v>2239</v>

--- a/코테 목록.xlsx
+++ b/코테 목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taekyuim/Desktop/code/Algorithm_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42473705-8494-0F44-A601-4E8C37A18CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D0D4D-4C75-FF49-B74B-F7CA2B144313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="4100" windowWidth="28100" windowHeight="17380" xr2:uid="{FE23ECA6-7A16-F44B-8D65-1D87F9C0C484}"/>
+    <workbookView xWindow="4080" yWindow="2640" windowWidth="28100" windowHeight="17380" xr2:uid="{FE23ECA6-7A16-F44B-8D65-1D87F9C0C484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>그래프탐색</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -515,8 +515,8 @@
       <c r="E2">
         <v>4485</v>
       </c>
-      <c r="F2">
-        <v>1339</v>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
       <c r="G2">
         <v>17298</v>

--- a/코테 목록.xlsx
+++ b/코테 목록.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taekyuim/Desktop/code/Algorithm_interview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8D0D4D-4C75-FF49-B74B-F7CA2B144313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24223D44-2936-5F45-8FCE-C8AA9B8FE91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="2640" windowWidth="28100" windowHeight="17380" xr2:uid="{FE23ECA6-7A16-F44B-8D65-1D87F9C0C484}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>그래프탐색</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,182 +465,185 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1707</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>9251</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2110</v>
       </c>
-      <c r="D2">
-        <v>2447</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>4485</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>17298</v>
       </c>
-      <c r="H2">
-        <v>2470</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
         <v>2580</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1967</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>11054</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>10830</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2665</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>12904</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>9935</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2467</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>14891</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1068</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2225</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2467</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5904</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>17396</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2504</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>17609</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>2504</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5639</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2565</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3020</v>
       </c>
-      <c r="D5">
-        <v>1891</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>14497</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1092</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>6198</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>15961</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>2636</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3055</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2133</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2295</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>17297</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>14284</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1041</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>16120</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>2239</v>
       </c>
     </row>
